--- a/Data/mappings/exiobase/EXIO_IW_concordance.xlsx
+++ b/Data/mappings/exiobase/EXIO_IW_concordance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\exiobase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings_2.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3228350-0943-4C93-8331-F8E18D72F0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688DAE3E-B60E-4950-BB9B-474D7CD56935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1178">
   <si>
     <t>Taxes less subsidies on products purchased: Total</t>
   </si>
@@ -3594,6 +3594,9 @@
   </si>
   <si>
     <t>Compensation of employees; wages, salaries, &amp; employers' social contributions: High-skilled</t>
+  </si>
+  <si>
+    <t>Occupation, unspecified</t>
   </si>
 </sst>
 </file>
@@ -3963,7 +3966,7 @@
   <dimension ref="A1:B1114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7589,6 +7592,9 @@
       <c r="A462" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="B462" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">

--- a/Data/mappings/exiobase/EXIO_IW_concordance.xlsx
+++ b/Data/mappings/exiobase/EXIO_IW_concordance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings_2.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\exiobase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688DAE3E-B60E-4950-BB9B-474D7CD56935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886DB076-5809-4E2D-BAE5-53F0B4C45618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1179">
   <si>
     <t>Taxes less subsidies on products purchased: Total</t>
   </si>
@@ -3597,6 +3597,9 @@
   </si>
   <si>
     <t>Occupation, unspecified</t>
+  </si>
+  <si>
+    <t>Pelagic fish</t>
   </si>
 </sst>
 </file>
@@ -3966,7 +3969,7 @@
   <dimension ref="A1:B1114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7683,11 +7686,17 @@
       <c r="A476" s="2" t="s">
         <v>471</v>
       </c>
+      <c r="B476" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="B477" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
@@ -9619,82 +9628,88 @@
         <v>843</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" s="2" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" s="2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B856" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" s="2" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B857" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" s="2" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" s="2" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" s="2" t="s">
         <v>859</v>
       </c>

--- a/Data/mappings/exiobase/EXIO_IW_concordance.xlsx
+++ b/Data/mappings/exiobase/EXIO_IW_concordance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\exiobase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886DB076-5809-4E2D-BAE5-53F0B4C45618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7032E0B6-E4BE-4A4E-B5C4-A8FDE15637CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1182">
   <si>
     <t>Taxes less subsidies on products purchased: Total</t>
   </si>
@@ -3374,9 +3374,6 @@
     <t>IW</t>
   </si>
   <si>
-    <t>Carbon dioxide, biogenic</t>
-  </si>
-  <si>
     <t>Methane, fossil</t>
   </si>
   <si>
@@ -3422,33 +3419,15 @@
     <t>Particulates, &lt; 2.5 um</t>
   </si>
   <si>
-    <t>Particulates</t>
-  </si>
-  <si>
-    <t>Arsenic</t>
-  </si>
-  <si>
-    <t>Cadmium</t>
-  </si>
-  <si>
-    <t>Chromium</t>
-  </si>
-  <si>
     <t>Copper</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
     <t>Nickel</t>
   </si>
   <si>
     <t>Lead</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
     <t>Zinc</t>
   </si>
   <si>
@@ -3600,6 +3579,36 @@
   </si>
   <si>
     <t>Pelagic fish</t>
+  </si>
+  <si>
+    <t>Arsenic(III)</t>
+  </si>
+  <si>
+    <t>Cadmium(II)</t>
+  </si>
+  <si>
+    <t>Copper(II)</t>
+  </si>
+  <si>
+    <t>Mercury(II)</t>
+  </si>
+  <si>
+    <t>Nickel(II)</t>
+  </si>
+  <si>
+    <t>Lead(II)</t>
+  </si>
+  <si>
+    <t>Selenium(IV)</t>
+  </si>
+  <si>
+    <t>Zinc(II)</t>
+  </si>
+  <si>
+    <t>Chromium(III)</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, biogenic, release</t>
   </si>
 </sst>
 </file>
@@ -3968,9 +3977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3998,17 +4005,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4113,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4114,7 +4121,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4122,7 +4129,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4130,7 +4137,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4138,7 +4145,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4146,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4154,7 +4161,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4162,7 +4169,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4170,7 +4177,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4178,7 +4185,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4186,7 +4193,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4194,7 +4201,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4202,7 +4209,7 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4210,7 +4217,7 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -4218,7 +4225,7 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -4226,7 +4233,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4234,7 +4241,7 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -4242,7 +4249,7 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4250,7 +4257,7 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4258,7 +4265,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4266,7 +4273,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4274,7 +4281,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4282,7 +4289,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4290,7 +4297,7 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4298,7 +4305,7 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4306,7 +4313,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>1127</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4314,7 +4321,7 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4322,7 +4329,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4330,7 +4337,7 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4338,7 +4345,7 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4346,7 +4353,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4354,7 +4361,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4362,7 +4369,7 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4370,7 +4377,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4378,7 +4385,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>1120</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4386,7 +4393,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4394,7 +4401,7 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4402,7 +4409,7 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -4410,7 +4417,7 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -4418,7 +4425,7 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4426,7 +4433,7 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -4434,7 +4441,7 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4442,7 +4449,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4450,7 +4457,7 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4458,7 +4465,7 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4466,7 +4473,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4474,7 +4481,7 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4482,7 +4489,7 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4490,7 +4497,7 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4498,7 +4505,7 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4506,7 +4513,7 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4514,7 +4521,7 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4522,7 +4529,7 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4530,7 +4537,7 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4538,7 +4545,7 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4546,7 +4553,7 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4554,7 +4561,7 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4562,7 +4569,7 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4570,7 +4577,7 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4578,7 +4585,7 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4586,7 +4593,7 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4594,7 +4601,7 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4602,7 +4609,7 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4610,7 +4617,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4618,7 +4625,7 @@
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4626,7 +4633,7 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +4641,7 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4642,7 +4649,7 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4650,7 +4657,7 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4658,7 +4665,7 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4666,7 +4673,7 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4674,7 +4681,7 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4682,7 +4689,7 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4690,7 +4697,7 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4698,7 +4705,7 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4706,7 +4713,7 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4714,7 +4721,7 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4722,7 +4729,7 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4730,7 +4737,7 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4738,7 +4745,7 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4746,7 +4753,7 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4754,7 +4761,7 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4762,7 +4769,7 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4770,7 +4777,7 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -4778,7 +4785,7 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4786,7 +4793,7 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -4794,7 +4801,7 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4802,7 +4809,7 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4810,7 +4817,7 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4818,7 +4825,7 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4826,7 +4833,7 @@
         <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4834,7 +4841,7 @@
         <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4842,7 +4849,7 @@
         <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4850,7 +4857,7 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4858,7 +4865,7 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4866,7 +4873,7 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4874,7 +4881,7 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4882,7 +4889,7 @@
         <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4890,7 +4897,7 @@
         <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4898,7 +4905,7 @@
         <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4906,7 +4913,7 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -4914,7 +4921,7 @@
         <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -4922,7 +4929,7 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -4930,7 +4937,7 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -4938,7 +4945,7 @@
         <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -4946,7 +4953,7 @@
         <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -4954,7 +4961,7 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -4962,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -4970,7 +4977,7 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -4978,7 +4985,7 @@
         <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -4986,7 +4993,7 @@
         <v>130</v>
       </c>
       <c r="B135" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -4994,7 +5001,7 @@
         <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5002,7 +5009,7 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5010,7 +5017,7 @@
         <v>133</v>
       </c>
       <c r="B138" t="s">
-        <v>1124</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5018,7 +5025,7 @@
         <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -5026,7 +5033,7 @@
         <v>135</v>
       </c>
       <c r="B140" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -5034,7 +5041,7 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -5042,7 +5049,7 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -5050,7 +5057,7 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -5058,7 +5065,7 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -5066,7 +5073,7 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -5074,7 +5081,7 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -5082,7 +5089,7 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -5090,7 +5097,7 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -5098,7 +5105,7 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -5106,7 +5113,7 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -5114,7 +5121,7 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -5122,7 +5129,7 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -5130,7 +5137,7 @@
         <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -5138,7 +5145,7 @@
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -5146,7 +5153,7 @@
         <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -5154,7 +5161,7 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -5162,7 +5169,7 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -5170,7 +5177,7 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -5178,7 +5185,7 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -5186,7 +5193,7 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -5194,7 +5201,7 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -5202,7 +5209,7 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +5217,7 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -5218,7 +5225,7 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -5226,7 +5233,7 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -5234,7 +5241,7 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -5242,7 +5249,7 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -5250,7 +5257,7 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -5258,7 +5265,7 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5273,7 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5274,7 +5281,7 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -5282,7 +5289,7 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -5290,7 +5297,7 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -5298,7 +5305,7 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -5306,7 +5313,7 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -5314,7 +5321,7 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -5322,7 +5329,7 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5330,7 +5337,7 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -5338,7 +5345,7 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5346,7 +5353,7 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -5354,7 +5361,7 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -5362,7 +5369,7 @@
         <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -5370,7 +5377,7 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5378,7 +5385,7 @@
         <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -5386,7 +5393,7 @@
         <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -5394,7 +5401,7 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -5402,7 +5409,7 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -5410,7 +5417,7 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -5418,7 +5425,7 @@
         <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +5433,7 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5434,7 +5441,7 @@
         <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5442,7 +5449,7 @@
         <v>187</v>
       </c>
       <c r="B192" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5450,7 +5457,7 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5458,7 +5465,7 @@
         <v>189</v>
       </c>
       <c r="B194" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5466,7 +5473,7 @@
         <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5474,7 +5481,7 @@
         <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5482,7 +5489,7 @@
         <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5490,7 +5497,7 @@
         <v>193</v>
       </c>
       <c r="B198" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5498,7 +5505,7 @@
         <v>194</v>
       </c>
       <c r="B199" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5506,7 +5513,7 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5514,7 +5521,7 @@
         <v>196</v>
       </c>
       <c r="B201" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -5522,7 +5529,7 @@
         <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -5530,7 +5537,7 @@
         <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -5538,7 +5545,7 @@
         <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -5546,7 +5553,7 @@
         <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -5554,7 +5561,7 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -5562,7 +5569,7 @@
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -5570,7 +5577,7 @@
         <v>203</v>
       </c>
       <c r="B208" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -5578,7 +5585,7 @@
         <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -5586,7 +5593,7 @@
         <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -5594,7 +5601,7 @@
         <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -5602,7 +5609,7 @@
         <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -5610,7 +5617,7 @@
         <v>208</v>
       </c>
       <c r="B213" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -5618,7 +5625,7 @@
         <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -5626,7 +5633,7 @@
         <v>210</v>
       </c>
       <c r="B215" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -5634,7 +5641,7 @@
         <v>211</v>
       </c>
       <c r="B216" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -5642,7 +5649,7 @@
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -5650,7 +5657,7 @@
         <v>213</v>
       </c>
       <c r="B218" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -5658,7 +5665,7 @@
         <v>214</v>
       </c>
       <c r="B219" t="s">
-        <v>1125</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -5666,7 +5673,7 @@
         <v>215</v>
       </c>
       <c r="B220" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -5674,7 +5681,7 @@
         <v>216</v>
       </c>
       <c r="B221" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -5682,7 +5689,7 @@
         <v>217</v>
       </c>
       <c r="B222" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -5690,7 +5697,7 @@
         <v>218</v>
       </c>
       <c r="B223" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -5698,7 +5705,7 @@
         <v>219</v>
       </c>
       <c r="B224" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -5706,7 +5713,7 @@
         <v>220</v>
       </c>
       <c r="B225" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -5714,7 +5721,7 @@
         <v>221</v>
       </c>
       <c r="B226" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -5722,7 +5729,7 @@
         <v>222</v>
       </c>
       <c r="B227" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -5730,7 +5737,7 @@
         <v>223</v>
       </c>
       <c r="B228" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -5738,7 +5745,7 @@
         <v>224</v>
       </c>
       <c r="B229" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -5746,7 +5753,7 @@
         <v>225</v>
       </c>
       <c r="B230" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -5754,7 +5761,7 @@
         <v>226</v>
       </c>
       <c r="B231" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -5762,7 +5769,7 @@
         <v>227</v>
       </c>
       <c r="B232" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -5770,7 +5777,7 @@
         <v>228</v>
       </c>
       <c r="B233" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -5778,7 +5785,7 @@
         <v>229</v>
       </c>
       <c r="B234" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -5786,7 +5793,7 @@
         <v>230</v>
       </c>
       <c r="B235" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -5794,7 +5801,7 @@
         <v>231</v>
       </c>
       <c r="B236" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -5802,7 +5809,7 @@
         <v>232</v>
       </c>
       <c r="B237" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -5810,7 +5817,7 @@
         <v>233</v>
       </c>
       <c r="B238" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -5818,7 +5825,7 @@
         <v>234</v>
       </c>
       <c r="B239" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -5826,7 +5833,7 @@
         <v>235</v>
       </c>
       <c r="B240" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -5834,7 +5841,7 @@
         <v>236</v>
       </c>
       <c r="B241" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -5842,7 +5849,7 @@
         <v>237</v>
       </c>
       <c r="B242" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -5850,7 +5857,7 @@
         <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -5858,7 +5865,7 @@
         <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -5866,7 +5873,7 @@
         <v>240</v>
       </c>
       <c r="B245" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -5874,7 +5881,7 @@
         <v>241</v>
       </c>
       <c r="B246" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -5882,7 +5889,7 @@
         <v>242</v>
       </c>
       <c r="B247" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -5890,7 +5897,7 @@
         <v>243</v>
       </c>
       <c r="B248" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -5898,7 +5905,7 @@
         <v>244</v>
       </c>
       <c r="B249" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -5906,7 +5913,7 @@
         <v>245</v>
       </c>
       <c r="B250" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -5914,7 +5921,7 @@
         <v>246</v>
       </c>
       <c r="B251" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -5922,7 +5929,7 @@
         <v>247</v>
       </c>
       <c r="B252" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -5930,7 +5937,7 @@
         <v>248</v>
       </c>
       <c r="B253" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -5938,7 +5945,7 @@
         <v>249</v>
       </c>
       <c r="B254" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -5946,7 +5953,7 @@
         <v>250</v>
       </c>
       <c r="B255" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -5954,7 +5961,7 @@
         <v>251</v>
       </c>
       <c r="B256" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -5962,7 +5969,7 @@
         <v>252</v>
       </c>
       <c r="B257" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -5970,7 +5977,7 @@
         <v>253</v>
       </c>
       <c r="B258" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -5978,7 +5985,7 @@
         <v>254</v>
       </c>
       <c r="B259" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -5986,7 +5993,7 @@
         <v>255</v>
       </c>
       <c r="B260" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -5994,7 +6001,7 @@
         <v>256</v>
       </c>
       <c r="B261" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -6002,7 +6009,7 @@
         <v>257</v>
       </c>
       <c r="B262" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -6010,7 +6017,7 @@
         <v>258</v>
       </c>
       <c r="B263" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -6018,7 +6025,7 @@
         <v>259</v>
       </c>
       <c r="B264" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -6026,7 +6033,7 @@
         <v>260</v>
       </c>
       <c r="B265" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -6034,7 +6041,7 @@
         <v>261</v>
       </c>
       <c r="B266" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -6042,7 +6049,7 @@
         <v>262</v>
       </c>
       <c r="B267" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -6050,7 +6057,7 @@
         <v>263</v>
       </c>
       <c r="B268" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -6058,7 +6065,7 @@
         <v>264</v>
       </c>
       <c r="B269" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -6066,7 +6073,7 @@
         <v>265</v>
       </c>
       <c r="B270" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -6074,7 +6081,7 @@
         <v>266</v>
       </c>
       <c r="B271" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -6082,7 +6089,7 @@
         <v>267</v>
       </c>
       <c r="B272" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -6090,7 +6097,7 @@
         <v>268</v>
       </c>
       <c r="B273" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -6098,7 +6105,7 @@
         <v>269</v>
       </c>
       <c r="B274" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -6106,7 +6113,7 @@
         <v>270</v>
       </c>
       <c r="B275" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -6114,7 +6121,7 @@
         <v>271</v>
       </c>
       <c r="B276" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -6122,7 +6129,7 @@
         <v>272</v>
       </c>
       <c r="B277" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -6130,7 +6137,7 @@
         <v>273</v>
       </c>
       <c r="B278" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -6138,7 +6145,7 @@
         <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -6146,7 +6153,7 @@
         <v>275</v>
       </c>
       <c r="B280" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -6154,7 +6161,7 @@
         <v>276</v>
       </c>
       <c r="B281" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -6162,7 +6169,7 @@
         <v>277</v>
       </c>
       <c r="B282" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -6170,7 +6177,7 @@
         <v>278</v>
       </c>
       <c r="B283" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -6178,7 +6185,7 @@
         <v>279</v>
       </c>
       <c r="B284" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -6186,7 +6193,7 @@
         <v>280</v>
       </c>
       <c r="B285" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -6194,7 +6201,7 @@
         <v>281</v>
       </c>
       <c r="B286" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -6202,7 +6209,7 @@
         <v>282</v>
       </c>
       <c r="B287" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -6210,7 +6217,7 @@
         <v>283</v>
       </c>
       <c r="B288" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -6218,7 +6225,7 @@
         <v>284</v>
       </c>
       <c r="B289" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -6226,7 +6233,7 @@
         <v>285</v>
       </c>
       <c r="B290" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -6234,7 +6241,7 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -6242,7 +6249,7 @@
         <v>287</v>
       </c>
       <c r="B292" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -6250,7 +6257,7 @@
         <v>288</v>
       </c>
       <c r="B293" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -6258,7 +6265,7 @@
         <v>289</v>
       </c>
       <c r="B294" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -6266,7 +6273,7 @@
         <v>290</v>
       </c>
       <c r="B295" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -6274,7 +6281,7 @@
         <v>291</v>
       </c>
       <c r="B296" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -6282,7 +6289,7 @@
         <v>292</v>
       </c>
       <c r="B297" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -6290,7 +6297,7 @@
         <v>293</v>
       </c>
       <c r="B298" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -6298,7 +6305,7 @@
         <v>294</v>
       </c>
       <c r="B299" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -6306,7 +6313,7 @@
         <v>295</v>
       </c>
       <c r="B300" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -6314,7 +6321,7 @@
         <v>296</v>
       </c>
       <c r="B301" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -6322,7 +6329,7 @@
         <v>297</v>
       </c>
       <c r="B302" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -6330,7 +6337,7 @@
         <v>298</v>
       </c>
       <c r="B303" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -6338,7 +6345,7 @@
         <v>299</v>
       </c>
       <c r="B304" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -6346,7 +6353,7 @@
         <v>300</v>
       </c>
       <c r="B305" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -6354,7 +6361,7 @@
         <v>301</v>
       </c>
       <c r="B306" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -6362,7 +6369,7 @@
         <v>302</v>
       </c>
       <c r="B307" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -6370,7 +6377,7 @@
         <v>303</v>
       </c>
       <c r="B308" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -6378,7 +6385,7 @@
         <v>304</v>
       </c>
       <c r="B309" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -6386,7 +6393,7 @@
         <v>305</v>
       </c>
       <c r="B310" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -6394,7 +6401,7 @@
         <v>306</v>
       </c>
       <c r="B311" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -6402,7 +6409,7 @@
         <v>307</v>
       </c>
       <c r="B312" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -6410,7 +6417,7 @@
         <v>308</v>
       </c>
       <c r="B313" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -6418,7 +6425,7 @@
         <v>309</v>
       </c>
       <c r="B314" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -6426,7 +6433,7 @@
         <v>310</v>
       </c>
       <c r="B315" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -6434,7 +6441,7 @@
         <v>311</v>
       </c>
       <c r="B316" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -6442,7 +6449,7 @@
         <v>312</v>
       </c>
       <c r="B317" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -6450,7 +6457,7 @@
         <v>313</v>
       </c>
       <c r="B318" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -6458,7 +6465,7 @@
         <v>314</v>
       </c>
       <c r="B319" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -6466,7 +6473,7 @@
         <v>315</v>
       </c>
       <c r="B320" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6474,7 +6481,7 @@
         <v>316</v>
       </c>
       <c r="B321" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6482,7 +6489,7 @@
         <v>317</v>
       </c>
       <c r="B322" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6490,7 +6497,7 @@
         <v>318</v>
       </c>
       <c r="B323" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6498,7 +6505,7 @@
         <v>319</v>
       </c>
       <c r="B324" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6506,7 +6513,7 @@
         <v>320</v>
       </c>
       <c r="B325" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6514,7 +6521,7 @@
         <v>321</v>
       </c>
       <c r="B326" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6522,7 +6529,7 @@
         <v>322</v>
       </c>
       <c r="B327" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6530,7 +6537,7 @@
         <v>323</v>
       </c>
       <c r="B328" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6538,7 +6545,7 @@
         <v>324</v>
       </c>
       <c r="B329" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6546,7 +6553,7 @@
         <v>325</v>
       </c>
       <c r="B330" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6554,7 +6561,7 @@
         <v>326</v>
       </c>
       <c r="B331" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6562,7 +6569,7 @@
         <v>327</v>
       </c>
       <c r="B332" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6570,7 +6577,7 @@
         <v>328</v>
       </c>
       <c r="B333" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6578,7 +6585,7 @@
         <v>329</v>
       </c>
       <c r="B334" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6586,7 +6593,7 @@
         <v>330</v>
       </c>
       <c r="B335" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6594,7 +6601,7 @@
         <v>331</v>
       </c>
       <c r="B336" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6602,7 +6609,7 @@
         <v>332</v>
       </c>
       <c r="B337" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6610,7 +6617,7 @@
         <v>333</v>
       </c>
       <c r="B338" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6618,7 +6625,7 @@
         <v>334</v>
       </c>
       <c r="B339" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6626,7 +6633,7 @@
         <v>335</v>
       </c>
       <c r="B340" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6634,7 +6641,7 @@
         <v>336</v>
       </c>
       <c r="B341" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6642,7 +6649,7 @@
         <v>337</v>
       </c>
       <c r="B342" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6650,7 +6657,7 @@
         <v>338</v>
       </c>
       <c r="B343" t="s">
-        <v>1126</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6658,7 +6665,7 @@
         <v>339</v>
       </c>
       <c r="B344" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6666,7 +6673,7 @@
         <v>340</v>
       </c>
       <c r="B345" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6674,7 +6681,7 @@
         <v>341</v>
       </c>
       <c r="B346" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -6682,7 +6689,7 @@
         <v>342</v>
       </c>
       <c r="B347" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -6690,7 +6697,7 @@
         <v>343</v>
       </c>
       <c r="B348" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -6698,7 +6705,7 @@
         <v>344</v>
       </c>
       <c r="B349" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -6706,7 +6713,7 @@
         <v>345</v>
       </c>
       <c r="B350" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -6714,7 +6721,7 @@
         <v>346</v>
       </c>
       <c r="B351" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,7 +6729,7 @@
         <v>347</v>
       </c>
       <c r="B352" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -6730,7 +6737,7 @@
         <v>348</v>
       </c>
       <c r="B353" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -6738,7 +6745,7 @@
         <v>349</v>
       </c>
       <c r="B354" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -6746,7 +6753,7 @@
         <v>350</v>
       </c>
       <c r="B355" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -6754,7 +6761,7 @@
         <v>351</v>
       </c>
       <c r="B356" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -6762,7 +6769,7 @@
         <v>352</v>
       </c>
       <c r="B357" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -6770,7 +6777,7 @@
         <v>353</v>
       </c>
       <c r="B358" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -6778,7 +6785,7 @@
         <v>354</v>
       </c>
       <c r="B359" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -6786,7 +6793,7 @@
         <v>355</v>
       </c>
       <c r="B360" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -6794,7 +6801,7 @@
         <v>356</v>
       </c>
       <c r="B361" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -6802,7 +6809,7 @@
         <v>357</v>
       </c>
       <c r="B362" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -6810,7 +6817,7 @@
         <v>358</v>
       </c>
       <c r="B363" t="s">
-        <v>1127</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6818,7 +6825,7 @@
         <v>359</v>
       </c>
       <c r="B364" t="s">
-        <v>1127</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -6826,7 +6833,7 @@
         <v>360</v>
       </c>
       <c r="B365" t="s">
-        <v>1127</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -6834,7 +6841,7 @@
         <v>361</v>
       </c>
       <c r="B366" t="s">
-        <v>1127</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -6842,7 +6849,7 @@
         <v>362</v>
       </c>
       <c r="B367" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -6850,7 +6857,7 @@
         <v>363</v>
       </c>
       <c r="B368" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -6858,7 +6865,7 @@
         <v>364</v>
       </c>
       <c r="B369" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -6866,7 +6873,7 @@
         <v>365</v>
       </c>
       <c r="B370" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -6874,7 +6881,7 @@
         <v>366</v>
       </c>
       <c r="B371" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -6882,7 +6889,7 @@
         <v>367</v>
       </c>
       <c r="B372" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -6890,7 +6897,7 @@
         <v>368</v>
       </c>
       <c r="B373" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -6898,7 +6905,7 @@
         <v>369</v>
       </c>
       <c r="B374" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -6906,7 +6913,7 @@
         <v>370</v>
       </c>
       <c r="B375" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -6914,7 +6921,7 @@
         <v>371</v>
       </c>
       <c r="B376" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -6922,7 +6929,7 @@
         <v>372</v>
       </c>
       <c r="B377" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -6930,7 +6937,7 @@
         <v>373</v>
       </c>
       <c r="B378" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -6938,7 +6945,7 @@
         <v>374</v>
       </c>
       <c r="B379" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -6946,7 +6953,7 @@
         <v>375</v>
       </c>
       <c r="B380" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -6954,7 +6961,7 @@
         <v>376</v>
       </c>
       <c r="B381" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -6962,7 +6969,7 @@
         <v>377</v>
       </c>
       <c r="B382" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -6970,7 +6977,7 @@
         <v>378</v>
       </c>
       <c r="B383" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -6978,7 +6985,7 @@
         <v>379</v>
       </c>
       <c r="B384" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -6986,7 +6993,7 @@
         <v>380</v>
       </c>
       <c r="B385" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -6994,7 +7001,7 @@
         <v>381</v>
       </c>
       <c r="B386" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -7002,7 +7009,7 @@
         <v>382</v>
       </c>
       <c r="B387" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -7010,7 +7017,7 @@
         <v>383</v>
       </c>
       <c r="B388" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -7018,7 +7025,7 @@
         <v>384</v>
       </c>
       <c r="B389" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -7026,7 +7033,7 @@
         <v>385</v>
       </c>
       <c r="B390" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -7034,7 +7041,7 @@
         <v>386</v>
       </c>
       <c r="B391" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -7042,7 +7049,7 @@
         <v>387</v>
       </c>
       <c r="B392" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -7050,7 +7057,7 @@
         <v>388</v>
       </c>
       <c r="B393" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -7058,7 +7065,7 @@
         <v>389</v>
       </c>
       <c r="B394" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -7066,7 +7073,7 @@
         <v>390</v>
       </c>
       <c r="B395" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -7074,7 +7081,7 @@
         <v>391</v>
       </c>
       <c r="B396" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -7082,7 +7089,7 @@
         <v>392</v>
       </c>
       <c r="B397" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -7090,7 +7097,7 @@
         <v>393</v>
       </c>
       <c r="B398" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -7098,7 +7105,7 @@
         <v>394</v>
       </c>
       <c r="B399" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -7106,7 +7113,7 @@
         <v>395</v>
       </c>
       <c r="B400" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -7114,7 +7121,7 @@
         <v>396</v>
       </c>
       <c r="B401" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -7122,7 +7129,7 @@
         <v>397</v>
       </c>
       <c r="B402" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -7130,7 +7137,7 @@
         <v>398</v>
       </c>
       <c r="B403" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -7138,7 +7145,7 @@
         <v>399</v>
       </c>
       <c r="B404" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -7146,7 +7153,7 @@
         <v>400</v>
       </c>
       <c r="B405" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -7154,7 +7161,7 @@
         <v>401</v>
       </c>
       <c r="B406" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -7162,7 +7169,7 @@
         <v>402</v>
       </c>
       <c r="B407" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -7170,7 +7177,7 @@
         <v>403</v>
       </c>
       <c r="B408" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -7178,7 +7185,7 @@
         <v>404</v>
       </c>
       <c r="B409" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -7186,7 +7193,7 @@
         <v>405</v>
       </c>
       <c r="B410" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -7194,7 +7201,7 @@
         <v>406</v>
       </c>
       <c r="B411" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -7202,7 +7209,7 @@
         <v>407</v>
       </c>
       <c r="B412" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -7210,7 +7217,7 @@
         <v>408</v>
       </c>
       <c r="B413" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -7218,7 +7225,7 @@
         <v>409</v>
       </c>
       <c r="B414" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -7226,7 +7233,7 @@
         <v>410</v>
       </c>
       <c r="B415" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -7234,7 +7241,7 @@
         <v>411</v>
       </c>
       <c r="B416" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -7242,7 +7249,7 @@
         <v>412</v>
       </c>
       <c r="B417" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -7250,7 +7257,7 @@
         <v>413</v>
       </c>
       <c r="B418" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -7258,7 +7265,7 @@
         <v>414</v>
       </c>
       <c r="B419" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7266,7 +7273,7 @@
         <v>415</v>
       </c>
       <c r="B420" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7274,7 +7281,7 @@
         <v>416</v>
       </c>
       <c r="B421" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7282,7 +7289,7 @@
         <v>417</v>
       </c>
       <c r="B422" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7290,7 +7297,7 @@
         <v>418</v>
       </c>
       <c r="B423" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7298,7 +7305,7 @@
         <v>419</v>
       </c>
       <c r="B424" t="s">
-        <v>1128</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7306,7 +7313,7 @@
         <v>420</v>
       </c>
       <c r="B425" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -7314,7 +7321,7 @@
         <v>421</v>
       </c>
       <c r="B426" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -7322,7 +7329,7 @@
         <v>422</v>
       </c>
       <c r="B427" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -7330,7 +7337,7 @@
         <v>423</v>
       </c>
       <c r="B428" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -7338,7 +7345,7 @@
         <v>424</v>
       </c>
       <c r="B429" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -7346,7 +7353,7 @@
         <v>425</v>
       </c>
       <c r="B430" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -7354,7 +7361,7 @@
         <v>426</v>
       </c>
       <c r="B431" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -7362,7 +7369,7 @@
         <v>427</v>
       </c>
       <c r="B432" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -7370,7 +7377,7 @@
         <v>428</v>
       </c>
       <c r="B433" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -7378,7 +7385,7 @@
         <v>429</v>
       </c>
       <c r="B434" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -7386,7 +7393,7 @@
         <v>430</v>
       </c>
       <c r="B435" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -7399,7 +7406,7 @@
         <v>432</v>
       </c>
       <c r="B437" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -7407,7 +7414,7 @@
         <v>433</v>
       </c>
       <c r="B438" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -7415,7 +7422,7 @@
         <v>434</v>
       </c>
       <c r="B439" t="s">
-        <v>1103</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -7423,7 +7430,7 @@
         <v>435</v>
       </c>
       <c r="B440" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -7436,7 +7443,7 @@
         <v>437</v>
       </c>
       <c r="B442" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -7444,7 +7451,7 @@
         <v>438</v>
       </c>
       <c r="B443" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -7452,7 +7459,7 @@
         <v>439</v>
       </c>
       <c r="B444" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -7460,7 +7467,7 @@
         <v>440</v>
       </c>
       <c r="B445" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -7468,7 +7475,7 @@
         <v>441</v>
       </c>
       <c r="B446" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -7476,7 +7483,7 @@
         <v>442</v>
       </c>
       <c r="B447" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -7484,7 +7491,7 @@
         <v>443</v>
       </c>
       <c r="B448" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -7492,7 +7499,7 @@
         <v>444</v>
       </c>
       <c r="B449" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -7500,7 +7507,7 @@
         <v>445</v>
       </c>
       <c r="B450" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -7508,7 +7515,7 @@
         <v>446</v>
       </c>
       <c r="B451" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -7516,7 +7523,7 @@
         <v>447</v>
       </c>
       <c r="B452" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -7524,7 +7531,7 @@
         <v>448</v>
       </c>
       <c r="B453" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -7532,7 +7539,7 @@
         <v>449</v>
       </c>
       <c r="B454" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -7540,7 +7547,7 @@
         <v>450</v>
       </c>
       <c r="B455" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -7548,7 +7555,7 @@
         <v>451</v>
       </c>
       <c r="B456" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -7556,7 +7563,7 @@
         <v>452</v>
       </c>
       <c r="B457" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -7564,7 +7571,7 @@
         <v>453</v>
       </c>
       <c r="B458" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -7572,7 +7579,7 @@
         <v>454</v>
       </c>
       <c r="B459" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -7580,7 +7587,7 @@
         <v>455</v>
       </c>
       <c r="B460" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -7588,7 +7595,7 @@
         <v>456</v>
       </c>
       <c r="B461" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -7596,7 +7603,7 @@
         <v>457</v>
       </c>
       <c r="B462" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -7604,7 +7611,7 @@
         <v>458</v>
       </c>
       <c r="B463" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -7612,7 +7619,7 @@
         <v>459</v>
       </c>
       <c r="B464" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -7620,7 +7627,7 @@
         <v>460</v>
       </c>
       <c r="B465" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -7628,7 +7635,7 @@
         <v>461</v>
       </c>
       <c r="B466" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -7636,7 +7643,7 @@
         <v>462</v>
       </c>
       <c r="B467" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -7644,7 +7651,7 @@
         <v>463</v>
       </c>
       <c r="B468" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -7687,7 +7694,7 @@
         <v>471</v>
       </c>
       <c r="B476" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7695,7 +7702,7 @@
         <v>472</v>
       </c>
       <c r="B477" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7783,7 +7790,7 @@
         <v>489</v>
       </c>
       <c r="B494" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -7791,7 +7798,7 @@
         <v>490</v>
       </c>
       <c r="B495" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -7809,7 +7816,7 @@
         <v>493</v>
       </c>
       <c r="B498" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -7817,7 +7824,7 @@
         <v>494</v>
       </c>
       <c r="B499" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -7830,7 +7837,7 @@
         <v>496</v>
       </c>
       <c r="B501" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -7843,7 +7850,7 @@
         <v>498</v>
       </c>
       <c r="B503" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -7851,7 +7858,7 @@
         <v>499</v>
       </c>
       <c r="B504" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -7859,7 +7866,7 @@
         <v>500</v>
       </c>
       <c r="B505" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -7867,7 +7874,7 @@
         <v>501</v>
       </c>
       <c r="B506" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -7875,7 +7882,7 @@
         <v>502</v>
       </c>
       <c r="B507" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -7883,7 +7890,7 @@
         <v>503</v>
       </c>
       <c r="B508" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -7891,7 +7898,7 @@
         <v>504</v>
       </c>
       <c r="B509" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -7899,7 +7906,7 @@
         <v>505</v>
       </c>
       <c r="B510" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -7907,7 +7914,7 @@
         <v>506</v>
       </c>
       <c r="B511" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -7915,7 +7922,7 @@
         <v>507</v>
       </c>
       <c r="B512" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -7923,7 +7930,7 @@
         <v>508</v>
       </c>
       <c r="B513" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -7931,7 +7938,7 @@
         <v>509</v>
       </c>
       <c r="B514" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -7939,7 +7946,7 @@
         <v>510</v>
       </c>
       <c r="B515" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -7947,7 +7954,7 @@
         <v>511</v>
       </c>
       <c r="B516" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -7955,7 +7962,7 @@
         <v>512</v>
       </c>
       <c r="B517" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -7963,7 +7970,7 @@
         <v>513</v>
       </c>
       <c r="B518" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -7971,7 +7978,7 @@
         <v>514</v>
       </c>
       <c r="B519" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -7979,7 +7986,7 @@
         <v>515</v>
       </c>
       <c r="B520" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -7987,7 +7994,7 @@
         <v>516</v>
       </c>
       <c r="B521" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -7995,7 +8002,7 @@
         <v>517</v>
       </c>
       <c r="B522" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -9668,7 +9675,7 @@
         <v>851</v>
       </c>
       <c r="B856" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
@@ -9676,7 +9683,7 @@
         <v>852</v>
       </c>
       <c r="B857" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
@@ -9764,7 +9771,7 @@
         <v>869</v>
       </c>
       <c r="B874" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
@@ -9772,7 +9779,7 @@
         <v>870</v>
       </c>
       <c r="B875" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
@@ -9790,7 +9797,7 @@
         <v>873</v>
       </c>
       <c r="B878" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
@@ -9798,7 +9805,7 @@
         <v>874</v>
       </c>
       <c r="B879" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
@@ -9811,7 +9818,7 @@
         <v>876</v>
       </c>
       <c r="B881" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
@@ -9819,7 +9826,7 @@
         <v>877</v>
       </c>
       <c r="B882" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
@@ -9827,7 +9834,7 @@
         <v>878</v>
       </c>
       <c r="B883" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
@@ -9835,7 +9842,7 @@
         <v>879</v>
       </c>
       <c r="B884" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
@@ -9843,7 +9850,7 @@
         <v>880</v>
       </c>
       <c r="B885" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
@@ -9851,7 +9858,7 @@
         <v>881</v>
       </c>
       <c r="B886" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
@@ -9859,7 +9866,7 @@
         <v>882</v>
       </c>
       <c r="B887" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
@@ -9867,7 +9874,7 @@
         <v>883</v>
       </c>
       <c r="B888" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
@@ -9875,7 +9882,7 @@
         <v>884</v>
       </c>
       <c r="B889" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
@@ -9888,7 +9895,7 @@
         <v>886</v>
       </c>
       <c r="B891" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
@@ -9896,7 +9903,7 @@
         <v>887</v>
       </c>
       <c r="B892" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
@@ -9904,7 +9911,7 @@
         <v>888</v>
       </c>
       <c r="B893" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
@@ -9912,7 +9919,7 @@
         <v>889</v>
       </c>
       <c r="B894" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
@@ -9920,7 +9927,7 @@
         <v>890</v>
       </c>
       <c r="B895" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
@@ -9928,7 +9935,7 @@
         <v>891</v>
       </c>
       <c r="B896" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
@@ -9936,7 +9943,7 @@
         <v>892</v>
       </c>
       <c r="B897" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
@@ -9944,7 +9951,7 @@
         <v>893</v>
       </c>
       <c r="B898" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
@@ -9952,7 +9959,7 @@
         <v>894</v>
       </c>
       <c r="B899" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
@@ -9960,7 +9967,7 @@
         <v>895</v>
       </c>
       <c r="B900" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
@@ -9968,7 +9975,7 @@
         <v>896</v>
       </c>
       <c r="B901" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
@@ -9976,7 +9983,7 @@
         <v>897</v>
       </c>
       <c r="B902" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
@@ -9984,7 +9991,7 @@
         <v>898</v>
       </c>
       <c r="B903" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
@@ -9992,7 +9999,7 @@
         <v>899</v>
       </c>
       <c r="B904" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
@@ -10000,7 +10007,7 @@
         <v>900</v>
       </c>
       <c r="B905" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
@@ -10008,7 +10015,7 @@
         <v>901</v>
       </c>
       <c r="B906" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
@@ -10016,7 +10023,7 @@
         <v>902</v>
       </c>
       <c r="B907" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
@@ -10024,7 +10031,7 @@
         <v>903</v>
       </c>
       <c r="B908" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
@@ -10032,7 +10039,7 @@
         <v>904</v>
       </c>
       <c r="B909" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
@@ -10040,7 +10047,7 @@
         <v>905</v>
       </c>
       <c r="B910" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
@@ -10118,7 +10125,7 @@
         <v>920</v>
       </c>
       <c r="B925" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
@@ -10126,7 +10133,7 @@
         <v>921</v>
       </c>
       <c r="B926" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
@@ -10134,7 +10141,7 @@
         <v>922</v>
       </c>
       <c r="B927" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
@@ -10142,7 +10149,7 @@
         <v>923</v>
       </c>
       <c r="B928" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
@@ -10150,7 +10157,7 @@
         <v>924</v>
       </c>
       <c r="B929" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
@@ -10158,7 +10165,7 @@
         <v>925</v>
       </c>
       <c r="B930" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.3">
@@ -10166,7 +10173,7 @@
         <v>926</v>
       </c>
       <c r="B931" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
@@ -10174,7 +10181,7 @@
         <v>927</v>
       </c>
       <c r="B932" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
@@ -10182,7 +10189,7 @@
         <v>928</v>
       </c>
       <c r="B933" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
@@ -10190,7 +10197,7 @@
         <v>929</v>
       </c>
       <c r="B934" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
@@ -10198,7 +10205,7 @@
         <v>930</v>
       </c>
       <c r="B935" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
@@ -10206,7 +10213,7 @@
         <v>931</v>
       </c>
       <c r="B936" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
@@ -10214,7 +10221,7 @@
         <v>932</v>
       </c>
       <c r="B937" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
@@ -10222,7 +10229,7 @@
         <v>933</v>
       </c>
       <c r="B938" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
@@ -10230,7 +10237,7 @@
         <v>934</v>
       </c>
       <c r="B939" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
@@ -10238,7 +10245,7 @@
         <v>935</v>
       </c>
       <c r="B940" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
@@ -10246,7 +10253,7 @@
         <v>936</v>
       </c>
       <c r="B941" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
@@ -10254,7 +10261,7 @@
         <v>937</v>
       </c>
       <c r="B942" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
@@ -10262,7 +10269,7 @@
         <v>938</v>
       </c>
       <c r="B943" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
@@ -10270,7 +10277,7 @@
         <v>939</v>
       </c>
       <c r="B944" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.3">
@@ -10278,7 +10285,7 @@
         <v>940</v>
       </c>
       <c r="B945" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
@@ -10286,7 +10293,7 @@
         <v>941</v>
       </c>
       <c r="B946" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.3">
@@ -10294,7 +10301,7 @@
         <v>942</v>
       </c>
       <c r="B947" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
@@ -10302,7 +10309,7 @@
         <v>943</v>
       </c>
       <c r="B948" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.3">
@@ -10310,7 +10317,7 @@
         <v>944</v>
       </c>
       <c r="B949" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
@@ -10318,7 +10325,7 @@
         <v>945</v>
       </c>
       <c r="B950" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.3">
@@ -10326,7 +10333,7 @@
         <v>946</v>
       </c>
       <c r="B951" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
@@ -10334,7 +10341,7 @@
         <v>947</v>
       </c>
       <c r="B952" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.3">
@@ -10342,7 +10349,7 @@
         <v>948</v>
       </c>
       <c r="B953" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
@@ -10350,7 +10357,7 @@
         <v>949</v>
       </c>
       <c r="B954" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
@@ -10358,7 +10365,7 @@
         <v>950</v>
       </c>
       <c r="B955" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
@@ -10366,7 +10373,7 @@
         <v>951</v>
       </c>
       <c r="B956" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
@@ -10374,7 +10381,7 @@
         <v>952</v>
       </c>
       <c r="B957" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
@@ -10382,7 +10389,7 @@
         <v>953</v>
       </c>
       <c r="B958" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
@@ -10390,7 +10397,7 @@
         <v>954</v>
       </c>
       <c r="B959" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.3">
@@ -10398,7 +10405,7 @@
         <v>955</v>
       </c>
       <c r="B960" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.3">
@@ -10406,7 +10413,7 @@
         <v>956</v>
       </c>
       <c r="B961" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
@@ -10414,7 +10421,7 @@
         <v>957</v>
       </c>
       <c r="B962" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.3">
@@ -10422,7 +10429,7 @@
         <v>958</v>
       </c>
       <c r="B963" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
@@ -10430,7 +10437,7 @@
         <v>959</v>
       </c>
       <c r="B964" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.3">
@@ -10438,7 +10445,7 @@
         <v>960</v>
       </c>
       <c r="B965" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.3">
@@ -10446,7 +10453,7 @@
         <v>961</v>
       </c>
       <c r="B966" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.3">
@@ -10454,7 +10461,7 @@
         <v>962</v>
       </c>
       <c r="B967" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.3">
@@ -10462,7 +10469,7 @@
         <v>963</v>
       </c>
       <c r="B968" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.3">
@@ -10470,7 +10477,7 @@
         <v>964</v>
       </c>
       <c r="B969" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.3">
@@ -10478,7 +10485,7 @@
         <v>965</v>
       </c>
       <c r="B970" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.3">
@@ -10486,7 +10493,7 @@
         <v>966</v>
       </c>
       <c r="B971" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.3">
@@ -10494,7 +10501,7 @@
         <v>967</v>
       </c>
       <c r="B972" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
@@ -10502,7 +10509,7 @@
         <v>968</v>
       </c>
       <c r="B973" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
@@ -10510,7 +10517,7 @@
         <v>969</v>
       </c>
       <c r="B974" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.3">
@@ -10518,7 +10525,7 @@
         <v>970</v>
       </c>
       <c r="B975" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
@@ -10526,7 +10533,7 @@
         <v>971</v>
       </c>
       <c r="B976" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
@@ -10534,7 +10541,7 @@
         <v>972</v>
       </c>
       <c r="B977" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
@@ -10542,7 +10549,7 @@
         <v>973</v>
       </c>
       <c r="B978" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.3">
@@ -10550,7 +10557,7 @@
         <v>974</v>
       </c>
       <c r="B979" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.3">
@@ -10558,7 +10565,7 @@
         <v>975</v>
       </c>
       <c r="B980" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.3">
@@ -10566,7 +10573,7 @@
         <v>976</v>
       </c>
       <c r="B981" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
@@ -10574,7 +10581,7 @@
         <v>977</v>
       </c>
       <c r="B982" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
@@ -10582,7 +10589,7 @@
         <v>978</v>
       </c>
       <c r="B983" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.3">
@@ -10590,7 +10597,7 @@
         <v>979</v>
       </c>
       <c r="B984" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.3">
@@ -10598,7 +10605,7 @@
         <v>980</v>
       </c>
       <c r="B985" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.3">
@@ -10606,7 +10613,7 @@
         <v>981</v>
       </c>
       <c r="B986" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.3">
@@ -10614,7 +10621,7 @@
         <v>982</v>
       </c>
       <c r="B987" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
@@ -10622,7 +10629,7 @@
         <v>983</v>
       </c>
       <c r="B988" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
@@ -10630,7 +10637,7 @@
         <v>984</v>
       </c>
       <c r="B989" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.3">
@@ -10638,7 +10645,7 @@
         <v>985</v>
       </c>
       <c r="B990" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.3">
@@ -10646,7 +10653,7 @@
         <v>986</v>
       </c>
       <c r="B991" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
@@ -10654,7 +10661,7 @@
         <v>987</v>
       </c>
       <c r="B992" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
@@ -10662,7 +10669,7 @@
         <v>988</v>
       </c>
       <c r="B993" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
@@ -10670,7 +10677,7 @@
         <v>989</v>
       </c>
       <c r="B994" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
@@ -10678,7 +10685,7 @@
         <v>990</v>
       </c>
       <c r="B995" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
@@ -10686,7 +10693,7 @@
         <v>991</v>
       </c>
       <c r="B996" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.3">
@@ -10694,7 +10701,7 @@
         <v>992</v>
       </c>
       <c r="B997" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
@@ -10702,7 +10709,7 @@
         <v>993</v>
       </c>
       <c r="B998" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.3">
@@ -10710,7 +10717,7 @@
         <v>994</v>
       </c>
       <c r="B999" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
@@ -10718,7 +10725,7 @@
         <v>995</v>
       </c>
       <c r="B1000" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
@@ -10726,7 +10733,7 @@
         <v>996</v>
       </c>
       <c r="B1001" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
@@ -10734,7 +10741,7 @@
         <v>997</v>
       </c>
       <c r="B1002" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
@@ -10742,7 +10749,7 @@
         <v>998</v>
       </c>
       <c r="B1003" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
@@ -10750,7 +10757,7 @@
         <v>999</v>
       </c>
       <c r="B1004" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
@@ -10758,7 +10765,7 @@
         <v>1000</v>
       </c>
       <c r="B1005" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
@@ -10766,7 +10773,7 @@
         <v>1001</v>
       </c>
       <c r="B1006" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
@@ -10774,7 +10781,7 @@
         <v>1002</v>
       </c>
       <c r="B1007" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
@@ -10782,7 +10789,7 @@
         <v>1003</v>
       </c>
       <c r="B1008" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
@@ -10790,7 +10797,7 @@
         <v>1004</v>
       </c>
       <c r="B1009" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
@@ -10798,7 +10805,7 @@
         <v>1005</v>
       </c>
       <c r="B1010" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
@@ -10806,7 +10813,7 @@
         <v>1006</v>
       </c>
       <c r="B1011" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
@@ -10814,7 +10821,7 @@
         <v>1007</v>
       </c>
       <c r="B1012" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
@@ -10822,7 +10829,7 @@
         <v>1008</v>
       </c>
       <c r="B1013" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
@@ -10830,7 +10837,7 @@
         <v>1009</v>
       </c>
       <c r="B1014" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
@@ -10838,7 +10845,7 @@
         <v>1010</v>
       </c>
       <c r="B1015" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
@@ -10846,7 +10853,7 @@
         <v>1011</v>
       </c>
       <c r="B1016" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
@@ -10854,7 +10861,7 @@
         <v>1012</v>
       </c>
       <c r="B1017" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
@@ -10862,7 +10869,7 @@
         <v>1013</v>
       </c>
       <c r="B1018" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
@@ -10870,7 +10877,7 @@
         <v>1014</v>
       </c>
       <c r="B1019" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
@@ -10878,7 +10885,7 @@
         <v>1015</v>
       </c>
       <c r="B1020" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
@@ -10886,7 +10893,7 @@
         <v>1016</v>
       </c>
       <c r="B1021" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
@@ -10894,7 +10901,7 @@
         <v>1017</v>
       </c>
       <c r="B1022" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
@@ -10902,7 +10909,7 @@
         <v>1018</v>
       </c>
       <c r="B1023" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
@@ -10910,7 +10917,7 @@
         <v>1019</v>
       </c>
       <c r="B1024" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
@@ -10918,7 +10925,7 @@
         <v>1020</v>
       </c>
       <c r="B1025" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
@@ -10926,7 +10933,7 @@
         <v>1021</v>
       </c>
       <c r="B1026" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
@@ -10934,7 +10941,7 @@
         <v>1022</v>
       </c>
       <c r="B1027" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
@@ -11329,47 +11336,47 @@
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1106" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1107" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1108" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1109" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1110" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1111" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1112" s="2" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1113" s="2" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1114" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
   </sheetData>

--- a/Data/mappings/exiobase/EXIO_IW_concordance.xlsx
+++ b/Data/mappings/exiobase/EXIO_IW_concordance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\exiobase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7032E0B6-E4BE-4A4E-B5C4-A8FDE15637CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B0619E-782A-4ED7-B1E7-6A475499CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3527,12 +3527,6 @@
     <t>Perlite</t>
   </si>
   <si>
-    <t>Water, agri</t>
-  </si>
-  <si>
-    <t>Water, non-agri</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
@@ -3609,6 +3603,12 @@
   </si>
   <si>
     <t>Carbon dioxide, biogenic, release</t>
+  </si>
+  <si>
+    <t>Water, cooling, unspecified natural origin</t>
+  </si>
+  <si>
+    <t>Water, unspecified natural origin</t>
   </si>
 </sst>
 </file>
@@ -3977,7 +3977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4005,17 +4007,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4257,7 +4259,7 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4265,7 +4267,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4273,7 +4275,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4281,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4289,7 +4291,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4297,7 +4299,7 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4305,7 +4307,7 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4313,7 +4315,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4321,7 +4323,7 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4329,7 +4331,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4337,7 +4339,7 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4345,7 +4347,7 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4353,7 +4355,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4361,7 +4363,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4369,7 +4371,7 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4377,7 +4379,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4385,7 +4387,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4681,7 +4683,7 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4689,7 +4691,7 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4697,7 +4699,7 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4705,7 +4707,7 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4713,7 +4715,7 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4721,7 +4723,7 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4729,7 +4731,7 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4737,7 +4739,7 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4745,7 +4747,7 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4753,7 +4755,7 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4761,7 +4763,7 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4769,7 +4771,7 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4777,7 +4779,7 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -4785,7 +4787,7 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4793,7 +4795,7 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -4801,7 +4803,7 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4809,7 +4811,7 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4817,7 +4819,7 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4825,7 +4827,7 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4833,7 +4835,7 @@
         <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4841,7 +4843,7 @@
         <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4849,7 +4851,7 @@
         <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4857,7 +4859,7 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4865,7 +4867,7 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4873,7 +4875,7 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4881,7 +4883,7 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4889,7 +4891,7 @@
         <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4913,7 +4915,7 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -4921,7 +4923,7 @@
         <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -4929,7 +4931,7 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -4937,7 +4939,7 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -4945,7 +4947,7 @@
         <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -4953,7 +4955,7 @@
         <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -4961,7 +4963,7 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -4969,7 +4971,7 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -4977,7 +4979,7 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -4993,7 +4995,7 @@
         <v>130</v>
       </c>
       <c r="B135" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5001,7 +5003,7 @@
         <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5009,7 +5011,7 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5017,7 +5019,7 @@
         <v>133</v>
       </c>
       <c r="B138" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5609,7 +5611,7 @@
         <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -5617,7 +5619,7 @@
         <v>208</v>
       </c>
       <c r="B213" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -5625,7 +5627,7 @@
         <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -5633,7 +5635,7 @@
         <v>210</v>
       </c>
       <c r="B215" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -5641,7 +5643,7 @@
         <v>211</v>
       </c>
       <c r="B216" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -5649,7 +5651,7 @@
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -5657,7 +5659,7 @@
         <v>213</v>
       </c>
       <c r="B218" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -5665,7 +5667,7 @@
         <v>214</v>
       </c>
       <c r="B219" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -6553,7 +6555,7 @@
         <v>325</v>
       </c>
       <c r="B330" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6561,7 +6563,7 @@
         <v>326</v>
       </c>
       <c r="B331" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6569,7 +6571,7 @@
         <v>327</v>
       </c>
       <c r="B332" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6577,7 +6579,7 @@
         <v>328</v>
       </c>
       <c r="B333" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6585,7 +6587,7 @@
         <v>329</v>
       </c>
       <c r="B334" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6593,7 +6595,7 @@
         <v>330</v>
       </c>
       <c r="B335" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6601,7 +6603,7 @@
         <v>331</v>
       </c>
       <c r="B336" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6609,7 +6611,7 @@
         <v>332</v>
       </c>
       <c r="B337" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6617,7 +6619,7 @@
         <v>333</v>
       </c>
       <c r="B338" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6625,7 +6627,7 @@
         <v>334</v>
       </c>
       <c r="B339" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6633,7 +6635,7 @@
         <v>335</v>
       </c>
       <c r="B340" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6641,7 +6643,7 @@
         <v>336</v>
       </c>
       <c r="B341" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6649,7 +6651,7 @@
         <v>337</v>
       </c>
       <c r="B342" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6657,7 +6659,7 @@
         <v>338</v>
       </c>
       <c r="B343" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6817,7 +6819,7 @@
         <v>358</v>
       </c>
       <c r="B363" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6825,7 +6827,7 @@
         <v>359</v>
       </c>
       <c r="B364" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -6833,7 +6835,7 @@
         <v>360</v>
       </c>
       <c r="B365" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -6841,7 +6843,7 @@
         <v>361</v>
       </c>
       <c r="B366" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -7217,7 +7219,7 @@
         <v>408</v>
       </c>
       <c r="B413" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -7225,7 +7227,7 @@
         <v>409</v>
       </c>
       <c r="B414" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -7233,7 +7235,7 @@
         <v>410</v>
       </c>
       <c r="B415" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -7241,7 +7243,7 @@
         <v>411</v>
       </c>
       <c r="B416" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -7249,7 +7251,7 @@
         <v>412</v>
       </c>
       <c r="B417" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -7257,7 +7259,7 @@
         <v>413</v>
       </c>
       <c r="B418" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -7265,7 +7267,7 @@
         <v>414</v>
       </c>
       <c r="B419" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7273,7 +7275,7 @@
         <v>415</v>
       </c>
       <c r="B420" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7281,7 +7283,7 @@
         <v>416</v>
       </c>
       <c r="B421" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7289,7 +7291,7 @@
         <v>417</v>
       </c>
       <c r="B422" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7297,7 +7299,7 @@
         <v>418</v>
       </c>
       <c r="B423" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7305,7 +7307,7 @@
         <v>419</v>
       </c>
       <c r="B424" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7422,7 +7424,7 @@
         <v>434</v>
       </c>
       <c r="B439" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -7603,7 +7605,7 @@
         <v>457</v>
       </c>
       <c r="B462" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -7694,7 +7696,7 @@
         <v>471</v>
       </c>
       <c r="B476" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7702,7 +7704,7 @@
         <v>472</v>
       </c>
       <c r="B477" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7874,7 +7876,7 @@
         <v>501</v>
       </c>
       <c r="B506" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -7898,7 +7900,7 @@
         <v>504</v>
       </c>
       <c r="B509" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -9675,7 +9677,7 @@
         <v>851</v>
       </c>
       <c r="B856" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
@@ -9683,7 +9685,7 @@
         <v>852</v>
       </c>
       <c r="B857" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
@@ -9919,7 +9921,7 @@
         <v>889</v>
       </c>
       <c r="B894" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
@@ -9943,7 +9945,7 @@
         <v>892</v>
       </c>
       <c r="B897" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
@@ -10125,7 +10127,7 @@
         <v>920</v>
       </c>
       <c r="B925" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
@@ -10133,7 +10135,7 @@
         <v>921</v>
       </c>
       <c r="B926" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
@@ -10141,7 +10143,7 @@
         <v>922</v>
       </c>
       <c r="B927" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
@@ -10149,7 +10151,7 @@
         <v>923</v>
       </c>
       <c r="B928" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
@@ -10157,7 +10159,7 @@
         <v>924</v>
       </c>
       <c r="B929" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
@@ -10165,7 +10167,7 @@
         <v>925</v>
       </c>
       <c r="B930" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.3">
@@ -10173,7 +10175,7 @@
         <v>926</v>
       </c>
       <c r="B931" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
@@ -10181,7 +10183,7 @@
         <v>927</v>
       </c>
       <c r="B932" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
@@ -10189,7 +10191,7 @@
         <v>928</v>
       </c>
       <c r="B933" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
@@ -10197,7 +10199,7 @@
         <v>929</v>
       </c>
       <c r="B934" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
@@ -10205,7 +10207,7 @@
         <v>930</v>
       </c>
       <c r="B935" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
@@ -10213,7 +10215,7 @@
         <v>931</v>
       </c>
       <c r="B936" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
@@ -10221,7 +10223,7 @@
         <v>932</v>
       </c>
       <c r="B937" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
@@ -10229,7 +10231,7 @@
         <v>933</v>
       </c>
       <c r="B938" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
@@ -10237,7 +10239,7 @@
         <v>934</v>
       </c>
       <c r="B939" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
@@ -10245,7 +10247,7 @@
         <v>935</v>
       </c>
       <c r="B940" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
@@ -10253,7 +10255,7 @@
         <v>936</v>
       </c>
       <c r="B941" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
@@ -10261,7 +10263,7 @@
         <v>937</v>
       </c>
       <c r="B942" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
@@ -10269,7 +10271,7 @@
         <v>938</v>
       </c>
       <c r="B943" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
@@ -10277,7 +10279,7 @@
         <v>939</v>
       </c>
       <c r="B944" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.3">
@@ -10285,7 +10287,7 @@
         <v>940</v>
       </c>
       <c r="B945" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
@@ -10293,7 +10295,7 @@
         <v>941</v>
       </c>
       <c r="B946" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.3">
@@ -10301,7 +10303,7 @@
         <v>942</v>
       </c>
       <c r="B947" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
@@ -10309,7 +10311,7 @@
         <v>943</v>
       </c>
       <c r="B948" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.3">
@@ -10317,7 +10319,7 @@
         <v>944</v>
       </c>
       <c r="B949" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
@@ -10325,7 +10327,7 @@
         <v>945</v>
       </c>
       <c r="B950" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.3">
@@ -10333,7 +10335,7 @@
         <v>946</v>
       </c>
       <c r="B951" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
@@ -10341,7 +10343,7 @@
         <v>947</v>
       </c>
       <c r="B952" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.3">
@@ -10349,7 +10351,7 @@
         <v>948</v>
       </c>
       <c r="B953" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
@@ -10357,7 +10359,7 @@
         <v>949</v>
       </c>
       <c r="B954" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
@@ -10365,7 +10367,7 @@
         <v>950</v>
       </c>
       <c r="B955" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
@@ -10373,7 +10375,7 @@
         <v>951</v>
       </c>
       <c r="B956" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
@@ -10381,7 +10383,7 @@
         <v>952</v>
       </c>
       <c r="B957" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
@@ -10389,7 +10391,7 @@
         <v>953</v>
       </c>
       <c r="B958" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
@@ -10397,7 +10399,7 @@
         <v>954</v>
       </c>
       <c r="B959" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.3">
@@ -10405,7 +10407,7 @@
         <v>955</v>
       </c>
       <c r="B960" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.3">
@@ -10413,7 +10415,7 @@
         <v>956</v>
       </c>
       <c r="B961" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
@@ -10421,7 +10423,7 @@
         <v>957</v>
       </c>
       <c r="B962" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.3">
@@ -10429,7 +10431,7 @@
         <v>958</v>
       </c>
       <c r="B963" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
@@ -10437,7 +10439,7 @@
         <v>959</v>
       </c>
       <c r="B964" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.3">
@@ -10445,7 +10447,7 @@
         <v>960</v>
       </c>
       <c r="B965" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.3">
@@ -10453,7 +10455,7 @@
         <v>961</v>
       </c>
       <c r="B966" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.3">
@@ -10461,7 +10463,7 @@
         <v>962</v>
       </c>
       <c r="B967" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.3">
@@ -10469,7 +10471,7 @@
         <v>963</v>
       </c>
       <c r="B968" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.3">
@@ -10477,7 +10479,7 @@
         <v>964</v>
       </c>
       <c r="B969" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.3">
@@ -10485,7 +10487,7 @@
         <v>965</v>
       </c>
       <c r="B970" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.3">
@@ -10493,7 +10495,7 @@
         <v>966</v>
       </c>
       <c r="B971" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.3">
@@ -10501,7 +10503,7 @@
         <v>967</v>
       </c>
       <c r="B972" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
@@ -10509,7 +10511,7 @@
         <v>968</v>
       </c>
       <c r="B973" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
@@ -10517,7 +10519,7 @@
         <v>969</v>
       </c>
       <c r="B974" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.3">
@@ -10525,7 +10527,7 @@
         <v>970</v>
       </c>
       <c r="B975" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
@@ -10533,7 +10535,7 @@
         <v>971</v>
       </c>
       <c r="B976" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
@@ -10541,7 +10543,7 @@
         <v>972</v>
       </c>
       <c r="B977" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
@@ -10549,7 +10551,7 @@
         <v>973</v>
       </c>
       <c r="B978" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.3">
@@ -10557,7 +10559,7 @@
         <v>974</v>
       </c>
       <c r="B979" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.3">
@@ -10565,7 +10567,7 @@
         <v>975</v>
       </c>
       <c r="B980" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.3">
@@ -10573,7 +10575,7 @@
         <v>976</v>
       </c>
       <c r="B981" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
@@ -10581,7 +10583,7 @@
         <v>977</v>
       </c>
       <c r="B982" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
@@ -10589,7 +10591,7 @@
         <v>978</v>
       </c>
       <c r="B983" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.3">
@@ -10597,7 +10599,7 @@
         <v>979</v>
       </c>
       <c r="B984" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.3">
@@ -10605,7 +10607,7 @@
         <v>980</v>
       </c>
       <c r="B985" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.3">
@@ -10613,7 +10615,7 @@
         <v>981</v>
       </c>
       <c r="B986" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.3">
@@ -10621,7 +10623,7 @@
         <v>982</v>
       </c>
       <c r="B987" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
@@ -10629,7 +10631,7 @@
         <v>983</v>
       </c>
       <c r="B988" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
@@ -10637,7 +10639,7 @@
         <v>984</v>
       </c>
       <c r="B989" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.3">
@@ -10645,7 +10647,7 @@
         <v>985</v>
       </c>
       <c r="B990" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.3">
@@ -10653,7 +10655,7 @@
         <v>986</v>
       </c>
       <c r="B991" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
@@ -10661,7 +10663,7 @@
         <v>987</v>
       </c>
       <c r="B992" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
@@ -10669,7 +10671,7 @@
         <v>988</v>
       </c>
       <c r="B993" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
@@ -10677,7 +10679,7 @@
         <v>989</v>
       </c>
       <c r="B994" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
@@ -10685,7 +10687,7 @@
         <v>990</v>
       </c>
       <c r="B995" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
@@ -10693,7 +10695,7 @@
         <v>991</v>
       </c>
       <c r="B996" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.3">
@@ -10701,7 +10703,7 @@
         <v>992</v>
       </c>
       <c r="B997" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
@@ -10709,7 +10711,7 @@
         <v>993</v>
       </c>
       <c r="B998" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.3">
@@ -10717,7 +10719,7 @@
         <v>994</v>
       </c>
       <c r="B999" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
@@ -10725,7 +10727,7 @@
         <v>995</v>
       </c>
       <c r="B1000" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
@@ -10733,7 +10735,7 @@
         <v>996</v>
       </c>
       <c r="B1001" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
@@ -10741,7 +10743,7 @@
         <v>997</v>
       </c>
       <c r="B1002" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
@@ -10749,7 +10751,7 @@
         <v>998</v>
       </c>
       <c r="B1003" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
@@ -10757,7 +10759,7 @@
         <v>999</v>
       </c>
       <c r="B1004" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
@@ -10765,7 +10767,7 @@
         <v>1000</v>
       </c>
       <c r="B1005" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
@@ -10773,7 +10775,7 @@
         <v>1001</v>
       </c>
       <c r="B1006" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
@@ -10781,7 +10783,7 @@
         <v>1002</v>
       </c>
       <c r="B1007" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
@@ -10789,7 +10791,7 @@
         <v>1003</v>
       </c>
       <c r="B1008" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
@@ -10797,7 +10799,7 @@
         <v>1004</v>
       </c>
       <c r="B1009" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
@@ -10805,7 +10807,7 @@
         <v>1005</v>
       </c>
       <c r="B1010" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
@@ -10813,7 +10815,7 @@
         <v>1006</v>
       </c>
       <c r="B1011" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
@@ -10821,7 +10823,7 @@
         <v>1007</v>
       </c>
       <c r="B1012" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
@@ -10829,7 +10831,7 @@
         <v>1008</v>
       </c>
       <c r="B1013" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
@@ -10837,7 +10839,7 @@
         <v>1009</v>
       </c>
       <c r="B1014" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
@@ -10845,7 +10847,7 @@
         <v>1010</v>
       </c>
       <c r="B1015" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
@@ -10853,7 +10855,7 @@
         <v>1011</v>
       </c>
       <c r="B1016" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
@@ -10861,7 +10863,7 @@
         <v>1012</v>
       </c>
       <c r="B1017" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
@@ -10869,7 +10871,7 @@
         <v>1013</v>
       </c>
       <c r="B1018" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
@@ -10877,7 +10879,7 @@
         <v>1014</v>
       </c>
       <c r="B1019" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
@@ -10885,7 +10887,7 @@
         <v>1015</v>
       </c>
       <c r="B1020" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
@@ -10893,7 +10895,7 @@
         <v>1016</v>
       </c>
       <c r="B1021" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
@@ -10901,7 +10903,7 @@
         <v>1017</v>
       </c>
       <c r="B1022" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
@@ -10909,7 +10911,7 @@
         <v>1018</v>
       </c>
       <c r="B1023" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
@@ -10917,7 +10919,7 @@
         <v>1019</v>
       </c>
       <c r="B1024" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
@@ -10925,7 +10927,7 @@
         <v>1020</v>
       </c>
       <c r="B1025" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
@@ -10933,7 +10935,7 @@
         <v>1021</v>
       </c>
       <c r="B1026" t="s">
-        <v>1155</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
@@ -10941,7 +10943,7 @@
         <v>1022</v>
       </c>
       <c r="B1027" t="s">
-        <v>1155</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
@@ -11336,47 +11338,47 @@
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1106" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1107" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1108" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1109" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1110" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1111" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1112" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1113" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1114" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
